--- a/report_binary.xlsx
+++ b/report_binary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,6 +439,36 @@
           <t>Generator Output EOD 0</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Generator Output EOD 1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Generator Output EOD 2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Generator Output EOD 3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Generator Output EOD 4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Generator Output EOD 5</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Generator Output EOD 6</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -446,6 +476,24 @@
       </c>
       <c r="B2" t="n">
         <v>1243.999999886877</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1244.000016127209</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1243.99999994427</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1243.999926543228</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1243.999997812718</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1244.000015568111</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1244.000000017299</v>
       </c>
     </row>
     <row r="3">
@@ -455,6 +503,24 @@
       <c r="B3" t="n">
         <v>1234.999999886372</v>
       </c>
+      <c r="C3" t="n">
+        <v>1235.00001610487</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1234.99999994427</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1234.999926544025</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1234.999997813321</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1235.000015568234</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1235.0000000173</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -463,6 +529,24 @@
       <c r="B4" t="n">
         <v>880.9999998876366</v>
       </c>
+      <c r="C4" t="n">
+        <v>881.0000161655312</v>
+      </c>
+      <c r="D4" t="n">
+        <v>880.9999999442698</v>
+      </c>
+      <c r="E4" t="n">
+        <v>880.9999265418951</v>
+      </c>
+      <c r="F4" t="n">
+        <v>880.9999978117119</v>
+      </c>
+      <c r="G4" t="n">
+        <v>881.0000155679026</v>
+      </c>
+      <c r="H4" t="n">
+        <v>881.0000000173001</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -471,6 +555,24 @@
       <c r="B5" t="n">
         <v>684.6999998866279</v>
       </c>
+      <c r="C5" t="n">
+        <v>684.7000161197086</v>
+      </c>
+      <c r="D5" t="n">
+        <v>684.6999999442712</v>
+      </c>
+      <c r="E5" t="n">
+        <v>684.6999265434945</v>
+      </c>
+      <c r="F5" t="n">
+        <v>684.6999978129186</v>
+      </c>
+      <c r="G5" t="n">
+        <v>684.7000155681524</v>
+      </c>
+      <c r="H5" t="n">
+        <v>684.7000000172998</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -479,6 +581,24 @@
       <c r="B6" t="n">
         <v>620.1999998864599</v>
       </c>
+      <c r="C6" t="n">
+        <v>620.2000161122628</v>
+      </c>
+      <c r="D6" t="n">
+        <v>620.1999999442703</v>
+      </c>
+      <c r="E6" t="n">
+        <v>620.1999265437607</v>
+      </c>
+      <c r="F6" t="n">
+        <v>620.1999978131196</v>
+      </c>
+      <c r="G6" t="n">
+        <v>620.2000155681937</v>
+      </c>
+      <c r="H6" t="n">
+        <v>620.2000000173</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -487,6 +607,24 @@
       <c r="B7" t="n">
         <v>611.9999998746018</v>
       </c>
+      <c r="C7" t="n">
+        <v>611.9999662791919</v>
+      </c>
+      <c r="D7" t="n">
+        <v>611.9999999442689</v>
+      </c>
+      <c r="E7" t="n">
+        <v>611.9999272127301</v>
+      </c>
+      <c r="F7" t="n">
+        <v>611.9999978158171</v>
+      </c>
+      <c r="G7" t="n">
+        <v>612.0000155678277</v>
+      </c>
+      <c r="H7" t="n">
+        <v>612.0000000173002</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -495,6 +633,24 @@
       <c r="B8" t="n">
         <v>372.1999998582791</v>
       </c>
+      <c r="C8" t="n">
+        <v>372.200014499288</v>
+      </c>
+      <c r="D8" t="n">
+        <v>372.19999994429</v>
+      </c>
+      <c r="E8" t="n">
+        <v>372.1999270865835</v>
+      </c>
+      <c r="F8" t="n">
+        <v>372.1999978444572</v>
+      </c>
+      <c r="G8" t="n">
+        <v>372.2000155763461</v>
+      </c>
+      <c r="H8" t="n">
+        <v>372.2000000172994</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -503,6 +659,24 @@
       <c r="B9" t="n">
         <v>372.1999998582791</v>
       </c>
+      <c r="C9" t="n">
+        <v>372.200014499288</v>
+      </c>
+      <c r="D9" t="n">
+        <v>372.19999994429</v>
+      </c>
+      <c r="E9" t="n">
+        <v>372.1999270865835</v>
+      </c>
+      <c r="F9" t="n">
+        <v>372.1999978444572</v>
+      </c>
+      <c r="G9" t="n">
+        <v>372.2000155763461</v>
+      </c>
+      <c r="H9" t="n">
+        <v>372.2000000172994</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -511,6 +685,24 @@
       <c r="B10" t="n">
         <v>243.9999998747267</v>
       </c>
+      <c r="C10" t="n">
+        <v>243.9999960579618</v>
+      </c>
+      <c r="D10" t="n">
+        <v>243.9999999442693</v>
+      </c>
+      <c r="E10" t="n">
+        <v>243.9999278035245</v>
+      </c>
+      <c r="F10" t="n">
+        <v>243.9999978155977</v>
+      </c>
+      <c r="G10" t="n">
+        <v>244.0000155677778</v>
+      </c>
+      <c r="H10" t="n">
+        <v>244.0000000173001</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -519,6 +711,24 @@
       <c r="B11" t="n">
         <v>243.4999998678225</v>
       </c>
+      <c r="C11" t="n">
+        <v>243.5000256803355</v>
+      </c>
+      <c r="D11" t="n">
+        <v>243.4999999442694</v>
+      </c>
+      <c r="E11" t="n">
+        <v>243.4999266222495</v>
+      </c>
+      <c r="F11" t="n">
+        <v>243.4999978155977</v>
+      </c>
+      <c r="G11" t="n">
+        <v>243.5000155677778</v>
+      </c>
+      <c r="H11" t="n">
+        <v>243.5000000172999</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -527,6 +737,24 @@
       <c r="B12" t="n">
         <v>149.7999998838656</v>
       </c>
+      <c r="C12" t="n">
+        <v>149.8000455221086</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>149.7999269123835</v>
+      </c>
+      <c r="F12" t="n">
+        <v>149.7999978145938</v>
+      </c>
+      <c r="G12" t="n">
+        <v>149.8000155677593</v>
+      </c>
+      <c r="H12" t="n">
+        <v>149.8000000173001</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -535,6 +763,24 @@
       <c r="B13" t="n">
         <v>144.3999998839707</v>
       </c>
+      <c r="C13" t="n">
+        <v>144.4000213420775</v>
+      </c>
+      <c r="D13" t="n">
+        <v>144.3999999442693</v>
+      </c>
+      <c r="E13" t="n">
+        <v>144.3999278317688</v>
+      </c>
+      <c r="F13" t="n">
+        <v>144.3999978155976</v>
+      </c>
+      <c r="G13" t="n">
+        <v>144.4000155677777</v>
+      </c>
+      <c r="H13" t="n">
+        <v>144.4000000173001</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -543,6 +789,24 @@
       <c r="B14" t="n">
         <v>81.99999989695087</v>
       </c>
+      <c r="C14" t="n">
+        <v>82.00001958830805</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>81.9999267985505</v>
+      </c>
+      <c r="F14" t="n">
+        <v>81.99999781569298</v>
+      </c>
+      <c r="G14" t="n">
+        <v>82.00001556782767</v>
+      </c>
+      <c r="H14" t="n">
+        <v>82.0000000173001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -551,6 +815,24 @@
       <c r="B15" t="n">
         <v>79.99999988397062</v>
       </c>
+      <c r="C15" t="n">
+        <v>80.00001678576371</v>
+      </c>
+      <c r="D15" t="n">
+        <v>79.99999994426925</v>
+      </c>
+      <c r="E15" t="n">
+        <v>79.99992691238364</v>
+      </c>
+      <c r="F15" t="n">
+        <v>79.99999781559757</v>
+      </c>
+      <c r="G15" t="n">
+        <v>80.00001556777775</v>
+      </c>
+      <c r="H15" t="n">
+        <v>80.00000001730004</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -559,6 +841,24 @@
       <c r="B16" t="n">
         <v>47.89999987113742</v>
       </c>
+      <c r="C16" t="n">
+        <v>47.90001819483242</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>47.89992681628861</v>
+      </c>
+      <c r="F16" t="n">
+        <v>47.89999784450809</v>
+      </c>
+      <c r="G16" t="n">
+        <v>47.90001557472822</v>
+      </c>
+      <c r="H16" t="n">
+        <v>47.9000000172994</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -567,6 +867,24 @@
       <c r="B17" t="n">
         <v>47.49999987113742</v>
       </c>
+      <c r="C17" t="n">
+        <v>47.50001814629226</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>47.49992681628827</v>
+      </c>
+      <c r="F17" t="n">
+        <v>47.49999784450796</v>
+      </c>
+      <c r="G17" t="n">
+        <v>47.50001558177196</v>
+      </c>
+      <c r="H17" t="n">
+        <v>47.50000001729938</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -575,6 +893,24 @@
       <c r="B18" t="n">
         <v>1.507996607589071e-07</v>
       </c>
+      <c r="C18" t="n">
+        <v>7.70982775614963e-06</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>6.744542209775467e-06</v>
+      </c>
+      <c r="H18" t="n">
+        <v>7.996574624843697e-09</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -583,6 +919,24 @@
       <c r="B19" t="n">
         <v>2.175719419607115e-07</v>
       </c>
+      <c r="C19" t="n">
+        <v>7.796043399156125e-06</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>6.75328540687377e-06</v>
+      </c>
+      <c r="H19" t="n">
+        <v>8.035344141160174e-09</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -591,6 +945,24 @@
       <c r="B20" t="n">
         <v>2.177980139675575e-07</v>
       </c>
+      <c r="C20" t="n">
+        <v>7.796254296274509e-06</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>6.753378023456671e-06</v>
+      </c>
+      <c r="H20" t="n">
+        <v>7.99330649126058e-09</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -599,6 +971,24 @@
       <c r="B21" t="n">
         <v>1.506976856611338e-07</v>
       </c>
+      <c r="C21" t="n">
+        <v>7.708846587310139e-06</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>6.744654451623437e-06</v>
+      </c>
+      <c r="H21" t="n">
+        <v>8.057970390984597e-09</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -607,6 +997,24 @@
       <c r="B22" t="n">
         <v>2.173466572218919e-07</v>
       </c>
+      <c r="C22" t="n">
+        <v>7.79469682591445e-06</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>6.75324333224075e-06</v>
+      </c>
+      <c r="H22" t="n">
+        <v>7.992935586052504e-09</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -615,6 +1023,24 @@
       <c r="B23" t="n">
         <v>1.982162332997469e-07</v>
       </c>
+      <c r="C23" t="n">
+        <v>7.764404256555132e-06</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>6.750663202662522e-06</v>
+      </c>
+      <c r="H23" t="n">
+        <v>8.03163762610993e-09</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -623,6 +1049,24 @@
       <c r="B24" t="n">
         <v>1.380680983264938e-08</v>
       </c>
+      <c r="C24" t="n">
+        <v>7.858511878903066e-06</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>6.730174231466966e-06</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8.015445627224353e-09</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -631,6 +1075,24 @@
       <c r="B25" t="n">
         <v>0</v>
       </c>
+      <c r="C25" t="n">
+        <v>2.0554727054262e-05</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>6.72254681235188e-06</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5.84886587157571e-08</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -639,6 +1101,24 @@
       <c r="B26" t="n">
         <v>1.385691114128919e-07</v>
       </c>
+      <c r="C26" t="n">
+        <v>7.702320489848512e-06</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>6.742944677152521e-06</v>
+      </c>
+      <c r="H26" t="n">
+        <v>7.991279716908234e-09</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -647,6 +1127,24 @@
       <c r="B27" t="n">
         <v>2.177980139675575e-07</v>
       </c>
+      <c r="C27" t="n">
+        <v>7.796254296274509e-06</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>6.753378023456671e-06</v>
+      </c>
+      <c r="H27" t="n">
+        <v>7.99330649126058e-09</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -655,6 +1153,24 @@
       <c r="B28" t="n">
         <v>2.183158870014418e-07</v>
       </c>
+      <c r="C28" t="n">
+        <v>7.79638173279237e-06</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>6.753421520832394e-06</v>
+      </c>
+      <c r="H28" t="n">
+        <v>7.956571032743669e-09</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -663,6 +1179,24 @@
       <c r="B29" t="n">
         <v>2.173474547371873e-07</v>
       </c>
+      <c r="C29" t="n">
+        <v>7.794065925022806e-06</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>6.753310765025459e-06</v>
+      </c>
+      <c r="H29" t="n">
+        <v>7.967201555372879e-09</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -671,6 +1205,24 @@
       <c r="B30" t="n">
         <v>2.177980139675575e-07</v>
       </c>
+      <c r="C30" t="n">
+        <v>7.796254296274509e-06</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>6.753378023456671e-06</v>
+      </c>
+      <c r="H30" t="n">
+        <v>7.99330649126058e-09</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -679,6 +1231,24 @@
       <c r="B31" t="n">
         <v>2.174827657392677e-07</v>
       </c>
+      <c r="C31" t="n">
+        <v>7.794608223206229e-06</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>6.753367976587405e-06</v>
+      </c>
+      <c r="H31" t="n">
+        <v>8.027604293468261e-09</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -687,6 +1257,24 @@
       <c r="B32" t="n">
         <v>1.90486558452517e-07</v>
       </c>
+      <c r="C32" t="n">
+        <v>6.538979950153431e-06</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>6.727131321865448e-06</v>
+      </c>
+      <c r="H32" t="n">
+        <v>8.030897617106414e-09</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -695,6 +1283,24 @@
       <c r="B33" t="n">
         <v>693.7999998430201</v>
       </c>
+      <c r="C33" t="n">
+        <v>693.8000176771084</v>
+      </c>
+      <c r="D33" t="n">
+        <v>693.7999999443076</v>
+      </c>
+      <c r="E33" t="n">
+        <v>693.7999266124837</v>
+      </c>
+      <c r="F33" t="n">
+        <v>693.7999978681937</v>
+      </c>
+      <c r="G33" t="n">
+        <v>693.8000155795291</v>
+      </c>
+      <c r="H33" t="n">
+        <v>693.8000000172991</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -703,6 +1309,24 @@
       <c r="B34" t="n">
         <v>685.299999843324</v>
       </c>
+      <c r="C34" t="n">
+        <v>685.3000176837854</v>
+      </c>
+      <c r="D34" t="n">
+        <v>685.2999999443073</v>
+      </c>
+      <c r="E34" t="n">
+        <v>685.2999266120041</v>
+      </c>
+      <c r="F34" t="n">
+        <v>685.2999978678203</v>
+      </c>
+      <c r="G34" t="n">
+        <v>685.3000155794459</v>
+      </c>
+      <c r="H34" t="n">
+        <v>685.300000017299</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -711,6 +1335,24 @@
       <c r="B35" t="n">
         <v>1.438857783577275e-07</v>
       </c>
+      <c r="C35" t="n">
+        <v>1.935561616431292e-05</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>347.8787324711315</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2.749087962828696e-05</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2.072071936046778e-08</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -719,6 +1361,24 @@
       <c r="B36" t="n">
         <v>110.9600007735683</v>
       </c>
+      <c r="C36" t="n">
+        <v>110.9600488505787</v>
+      </c>
+      <c r="D36" t="n">
+        <v>110.9599999509262</v>
+      </c>
+      <c r="E36" t="n">
+        <v>110.9598895693182</v>
+      </c>
+      <c r="F36" t="n">
+        <v>110.9599968019975</v>
+      </c>
+      <c r="G36" t="n">
+        <v>110.9600227654454</v>
+      </c>
+      <c r="H36" t="n">
+        <v>110.9600000233034</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -727,6 +1387,24 @@
       <c r="B37" t="n">
         <v>515.4999998426038</v>
       </c>
+      <c r="C37" t="n">
+        <v>515.5000176837158</v>
+      </c>
+      <c r="D37" t="n">
+        <v>515.4999999443073</v>
+      </c>
+      <c r="E37" t="n">
+        <v>515.4999266066756</v>
+      </c>
+      <c r="F37" t="n">
+        <v>515.4999978678202</v>
+      </c>
+      <c r="G37" t="n">
+        <v>515.5000155794457</v>
+      </c>
+      <c r="H37" t="n">
+        <v>515.5000000172995</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -735,6 +1413,24 @@
       <c r="B38" t="n">
         <v>507.9999998433242</v>
       </c>
+      <c r="C38" t="n">
+        <v>508.000015408216</v>
+      </c>
+      <c r="D38" t="n">
+        <v>507.9999999443074</v>
+      </c>
+      <c r="E38" t="n">
+        <v>507.9999266120043</v>
+      </c>
+      <c r="F38" t="n">
+        <v>507.99999786828</v>
+      </c>
+      <c r="G38" t="n">
+        <v>508.0000155794462</v>
+      </c>
+      <c r="H38" t="n">
+        <v>508.0000000172992</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -743,6 +1439,24 @@
       <c r="B39" t="n">
         <v>490.3999998434077</v>
       </c>
+      <c r="C39" t="n">
+        <v>490.4000154082159</v>
+      </c>
+      <c r="D39" t="n">
+        <v>490.3999999443078</v>
+      </c>
+      <c r="E39" t="n">
+        <v>490.3999266120043</v>
+      </c>
+      <c r="F39" t="n">
+        <v>490.3999978677991</v>
+      </c>
+      <c r="G39" t="n">
+        <v>490.4000155794461</v>
+      </c>
+      <c r="H39" t="n">
+        <v>490.400000017299</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -751,6 +1465,24 @@
       <c r="B40" t="n">
         <v>197.8405013095242</v>
       </c>
+      <c r="C40" t="n">
+        <v>424.6032916427949</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>235.5531342044432</v>
+      </c>
+      <c r="F40" t="n">
+        <v>447.8999978671636</v>
+      </c>
+      <c r="G40" t="n">
+        <v>423.5317035345532</v>
+      </c>
+      <c r="H40" t="n">
+        <v>447.9000000172989</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -759,6 +1491,24 @@
       <c r="B41" t="n">
         <v>270.8999996207065</v>
       </c>
+      <c r="C41" t="n">
+        <v>270.9000190153413</v>
+      </c>
+      <c r="D41" t="n">
+        <v>222.7409002882427</v>
+      </c>
+      <c r="E41" t="n">
+        <v>270.8999270398779</v>
+      </c>
+      <c r="F41" t="n">
+        <v>270.899998245597</v>
+      </c>
+      <c r="G41" t="n">
+        <v>270.9000156639029</v>
+      </c>
+      <c r="H41" t="n">
+        <v>270.9000000172902</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -767,6 +1517,24 @@
       <c r="B42" t="n">
         <v>8.392079794815197e-08</v>
       </c>
+      <c r="C42" t="n">
+        <v>7.14791338688961e-06</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>6.728111186883756e-06</v>
+      </c>
+      <c r="H42" t="n">
+        <v>7.353529296206675e-09</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -775,6 +1543,24 @@
       <c r="B43" t="n">
         <v>248.6999998898822</v>
       </c>
+      <c r="C43" t="n">
+        <v>248.7000203609188</v>
+      </c>
+      <c r="D43" t="n">
+        <v>248.699999944268</v>
+      </c>
+      <c r="E43" t="n">
+        <v>248.6999265384181</v>
+      </c>
+      <c r="F43" t="n">
+        <v>248.6999978137684</v>
+      </c>
+      <c r="G43" t="n">
+        <v>248.700015567362</v>
+      </c>
+      <c r="H43" t="n">
+        <v>248.7000000173001</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -783,6 +1569,24 @@
       <c r="B44" t="n">
         <v>247.7999998898823</v>
       </c>
+      <c r="C44" t="n">
+        <v>247.8000203609333</v>
+      </c>
+      <c r="D44" t="n">
+        <v>247.799999944268</v>
+      </c>
+      <c r="E44" t="n">
+        <v>247.7999265384182</v>
+      </c>
+      <c r="F44" t="n">
+        <v>247.7999978137628</v>
+      </c>
+      <c r="G44" t="n">
+        <v>247.8000155673618</v>
+      </c>
+      <c r="H44" t="n">
+        <v>247.8000000173002</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -791,6 +1595,24 @@
       <c r="B45" t="n">
         <v>247.7999998898822</v>
       </c>
+      <c r="C45" t="n">
+        <v>247.8000203609293</v>
+      </c>
+      <c r="D45" t="n">
+        <v>247.7999999442679</v>
+      </c>
+      <c r="E45" t="n">
+        <v>247.7999265384182</v>
+      </c>
+      <c r="F45" t="n">
+        <v>247.7999978138061</v>
+      </c>
+      <c r="G45" t="n">
+        <v>247.8000155673619</v>
+      </c>
+      <c r="H45" t="n">
+        <v>247.8000000173001</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -799,6 +1621,24 @@
       <c r="B46" t="n">
         <v>8.385917747365205e-08</v>
       </c>
+      <c r="C46" t="n">
+        <v>79.97875996599996</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>244.899997869084</v>
+      </c>
+      <c r="G46" t="n">
+        <v>96.04722193214772</v>
+      </c>
+      <c r="H46" t="n">
+        <v>244.9000000172987</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -807,6 +1647,24 @@
       <c r="B47" t="n">
         <v>2.018469307594905e-07</v>
       </c>
+      <c r="C47" t="n">
+        <v>6.578436644198165e-06</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>6.728868618127043e-06</v>
+      </c>
+      <c r="H47" t="n">
+        <v>8.009436962711548e-09</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -815,6 +1673,24 @@
       <c r="B48" t="n">
         <v>2.018683345570977e-07</v>
       </c>
+      <c r="C48" t="n">
+        <v>6.552246508174741e-06</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>6.72845086943165e-06</v>
+      </c>
+      <c r="H48" t="n">
+        <v>7.346115844075776e-09</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -823,6 +1699,24 @@
       <c r="B49" t="n">
         <v>238.2999998309895</v>
       </c>
+      <c r="C49" t="n">
+        <v>238.3000174754095</v>
+      </c>
+      <c r="D49" t="n">
+        <v>238.2999999443189</v>
+      </c>
+      <c r="E49" t="n">
+        <v>238.2999266316162</v>
+      </c>
+      <c r="F49" t="n">
+        <v>238.2999978833319</v>
+      </c>
+      <c r="G49" t="n">
+        <v>238.3000155829143</v>
+      </c>
+      <c r="H49" t="n">
+        <v>238.3000000172986</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -831,6 +1725,24 @@
       <c r="B50" t="n">
         <v>7.9665045461247e-08</v>
       </c>
+      <c r="C50" t="n">
+        <v>7.147922266427728e-06</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>6.510485055135065e-06</v>
+      </c>
+      <c r="H50" t="n">
+        <v>236.4000000172985</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -839,6 +1751,24 @@
       <c r="B51" t="n">
         <v>0</v>
       </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>30.70002275452084</v>
+      </c>
+      <c r="H51" t="n">
+        <v>30.93999900933999</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -847,6 +1777,24 @@
       <c r="B52" t="n">
         <v>5.849718363008183e-08</v>
       </c>
+      <c r="C52" t="n">
+        <v>7.207754191274999e-06</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>148.9999979630982</v>
+      </c>
+      <c r="G52" t="n">
+        <v>6.5131523389282e-06</v>
+      </c>
+      <c r="H52" t="n">
+        <v>7.35346606235647e-09</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -855,6 +1803,24 @@
       <c r="B53" t="n">
         <v>1.951634621323194e-07</v>
       </c>
+      <c r="C53" t="n">
+        <v>7.043304476626138e-06</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>6.735973986106613e-06</v>
+      </c>
+      <c r="H53" t="n">
+        <v>8.033327617585431e-09</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -863,6 +1829,24 @@
       <c r="B54" t="n">
         <v>1.912239715940898e-07</v>
       </c>
+      <c r="C54" t="n">
+        <v>7.210836823139177e-06</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>6.740364044174428e-06</v>
+      </c>
+      <c r="H54" t="n">
+        <v>8.502283156423368e-09</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -871,6 +1855,24 @@
       <c r="B55" t="n">
         <v>1.881030511361636e-07</v>
       </c>
+      <c r="C55" t="n">
+        <v>7.371164889902442e-06</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>6.744099680308384e-06</v>
+      </c>
+      <c r="H55" t="n">
+        <v>7.983596769144708e-09</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -879,6 +1881,24 @@
       <c r="B56" t="n">
         <v>1.934475913818831e-07</v>
       </c>
+      <c r="C56" t="n">
+        <v>7.134442841319711e-06</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>6.738386605495381e-06</v>
+      </c>
+      <c r="H56" t="n">
+        <v>8.013863765184877e-09</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -887,6 +1907,24 @@
       <c r="B57" t="n">
         <v>5.385610761240898e-07</v>
       </c>
+      <c r="C57" t="n">
+        <v>7.399040098582522e-06</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>6.72814384106581e-06</v>
+      </c>
+      <c r="H57" t="n">
+        <v>8.002408453303192e-09</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -895,6 +1933,24 @@
       <c r="B58" t="n">
         <v>2.00216405925211e-07</v>
       </c>
+      <c r="C58" t="n">
+        <v>6.65518549397397e-06</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>6.729699001026815e-06</v>
+      </c>
+      <c r="H58" t="n">
+        <v>7.379280677350334e-09</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -903,6 +1959,24 @@
       <c r="B59" t="n">
         <v>4.248227094080918e-07</v>
       </c>
+      <c r="C59" t="n">
+        <v>7.818135800632335e-06</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>6.731467478406114e-06</v>
+      </c>
+      <c r="H59" t="n">
+        <v>8.037607293847481e-09</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -911,6 +1985,24 @@
       <c r="B60" t="n">
         <v>1.890050491188537e-07</v>
       </c>
+      <c r="C60" t="n">
+        <v>7.356280082484841e-06</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>6.742786111655172e-06</v>
+      </c>
+      <c r="H60" t="n">
+        <v>7.983329367633341e-09</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -919,6 +2011,24 @@
       <c r="B61" t="n">
         <v>5.035538180832901e-07</v>
       </c>
+      <c r="C61" t="n">
+        <v>7.355700070408662e-06</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>6.742620611504228e-06</v>
+      </c>
+      <c r="H61" t="n">
+        <v>7.99919360494607e-09</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -927,6 +2037,24 @@
       <c r="B62" t="n">
         <v>5.035538180832901e-07</v>
       </c>
+      <c r="C62" t="n">
+        <v>7.355700070408662e-06</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>6.742747291133054e-06</v>
+      </c>
+      <c r="H62" t="n">
+        <v>8.009036434961329e-09</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -935,6 +2063,24 @@
       <c r="B63" t="n">
         <v>5.033443635035711e-07</v>
       </c>
+      <c r="C63" t="n">
+        <v>7.355559385340472e-06</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>6.742815265195985e-06</v>
+      </c>
+      <c r="H63" t="n">
+        <v>7.99543938659405e-09</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -943,6 +2089,24 @@
       <c r="B64" t="n">
         <v>0</v>
       </c>
+      <c r="C64" t="n">
+        <v>7.927827067368123e-06</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>6.728903017850097e-06</v>
+      </c>
+      <c r="H64" t="n">
+        <v>8.036689977551024e-09</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -951,6 +2115,24 @@
       <c r="B65" t="n">
         <v>0</v>
       </c>
+      <c r="C65" t="n">
+        <v>7.962276947244993e-06</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>6.728268197561948e-06</v>
+      </c>
+      <c r="H65" t="n">
+        <v>7.98503831649298e-09</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -959,6 +2141,24 @@
       <c r="B66" t="n">
         <v>0</v>
       </c>
+      <c r="C66" t="n">
+        <v>7.956600887671018e-06</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>6.728400729813863e-06</v>
+      </c>
+      <c r="H66" t="n">
+        <v>7.988614794067063e-09</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -967,6 +2167,24 @@
       <c r="B67" t="n">
         <v>2.153018518869327e-07</v>
       </c>
+      <c r="C67" t="n">
+        <v>7.79092361007421e-06</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>6.753021362808762e-06</v>
+      </c>
+      <c r="H67" t="n">
+        <v>7.99693475666253e-09</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -975,6 +2193,24 @@
       <c r="B68" t="n">
         <v>3.123130295897063e-08</v>
       </c>
+      <c r="C68" t="n">
+        <v>7.797756778824333e-06</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>6.731845525155007e-06</v>
+      </c>
+      <c r="H68" t="n">
+        <v>8.028862015036153e-09</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -983,6 +2219,24 @@
       <c r="B69" t="n">
         <v>3.335244536736984e-07</v>
       </c>
+      <c r="C69" t="n">
+        <v>7.773432313965652e-06</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>6.732786067873876e-06</v>
+      </c>
+      <c r="H69" t="n">
+        <v>8.018824759777131e-09</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -991,6 +2245,24 @@
       <c r="B70" t="n">
         <v>5.599757262459773e-07</v>
       </c>
+      <c r="C70" t="n">
+        <v>7.608791791569866e-06</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>6.732700013908886e-06</v>
+      </c>
+      <c r="H70" t="n">
+        <v>8.011851396947775e-09</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -999,6 +2271,24 @@
       <c r="B71" t="n">
         <v>8.298022838657096e-07</v>
       </c>
+      <c r="C71" t="n">
+        <v>7.743853363557449e-06</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>6.7328664182252e-06</v>
+      </c>
+      <c r="H71" t="n">
+        <v>8.015467076133614e-09</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -1007,6 +2297,24 @@
       <c r="B72" t="n">
         <v>7.52642250776023e-07</v>
       </c>
+      <c r="C72" t="n">
+        <v>7.79620200884799e-06</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>6.732744382634398e-06</v>
+      </c>
+      <c r="H72" t="n">
+        <v>8.004226609192755e-09</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -1015,6 +2323,24 @@
       <c r="B73" t="n">
         <v>6.897609221515249e-07</v>
       </c>
+      <c r="C73" t="n">
+        <v>7.840307281759893e-06</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>6.732680466316916e-06</v>
+      </c>
+      <c r="H73" t="n">
+        <v>8.025497075075349e-09</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -1023,6 +2349,24 @@
       <c r="B74" t="n">
         <v>3.181756275474884e-08</v>
       </c>
+      <c r="C74" t="n">
+        <v>7.797104790681519e-06</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>6.731807588883244e-06</v>
+      </c>
+      <c r="H74" t="n">
+        <v>8.014095992676383e-09</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -1031,6 +2375,24 @@
       <c r="B75" t="n">
         <v>3.28200071709654e-07</v>
       </c>
+      <c r="C75" t="n">
+        <v>7.815774092485884e-06</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>6.731522531106256e-06</v>
+      </c>
+      <c r="H75" t="n">
+        <v>8.008484995023492e-09</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -1039,6 +2401,24 @@
       <c r="B76" t="n">
         <v>4.772076209556309e-07</v>
       </c>
+      <c r="C76" t="n">
+        <v>7.784489257106087e-06</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>6.732292558709058e-06</v>
+      </c>
+      <c r="H76" t="n">
+        <v>8.023337413698207e-09</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -1046,6 +2426,24 @@
       </c>
       <c r="B77" t="n">
         <v>6.559784162755431e-07</v>
+      </c>
+      <c r="C77" t="n">
+        <v>7.605825234019818e-06</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>6.733108973881038e-06</v>
+      </c>
+      <c r="H77" t="n">
+        <v>8.017577545638842e-09</v>
       </c>
     </row>
   </sheetData>
